--- a/N9K-C93180YC-FX3_VI.xlsx
+++ b/N9K-C93180YC-FX3_VI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\spec1806\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DEEA50-05AE-4B50-881E-EA2F6B175372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8108BDBB-CBDE-4CE6-935C-AE099985AAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12504" xr2:uid="{83F9F89E-2EA3-469F-8AE6-1756E449F2A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{83F9F89E-2EA3-469F-8AE6-1756E449F2A3}"/>
   </bookViews>
   <sheets>
     <sheet name="N9K-C93180YC-FX3" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
-  <si>
-    <t>1/10/25-Gbps Ethernet</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>CPU</t>
   </si>
@@ -48,9 +45,6 @@
     <t>40 MB</t>
   </si>
   <si>
-    <t>Maximum: 32,000</t>
-  </si>
-  <si>
     <t>Maximum number of Hot-Standby Router Protocol (HSRP) groups</t>
   </si>
   <si>
@@ -132,9 +126,6 @@
     <t>Cổng</t>
   </si>
   <si>
-    <t>Tốc độ Downlink hỗ trợ</t>
-  </si>
-  <si>
     <t>Bộ nhớ hệ thống</t>
   </si>
   <si>
@@ -156,12 +147,6 @@
     <t>Thông số về hiệu suất và khả năng mở rộng phần cứng</t>
   </si>
   <si>
-    <t>Số tuyến Longest Prefix Match (LPM) tối đa</t>
-  </si>
-  <si>
-    <t>Số mục IP host tối đa</t>
-  </si>
-  <si>
     <t>Số mục địa chỉ MAC tối đa</t>
   </si>
   <si>
@@ -274,9 +259,6 @@
   </si>
   <si>
     <t>Hướng từ trước ra sau</t>
-  </si>
-  <si>
-    <t>tối đa: 16,000</t>
   </si>
   <si>
     <t>Cơ chế Single-slice forwarding:
@@ -297,6 +279,33 @@
   </si>
   <si>
     <t>650W AC</t>
+  </si>
+  <si>
+    <t>Số lượng tối đa các tuyến IPv4 Longest Prefix Match (LPM)</t>
+  </si>
+  <si>
+    <t>Số lượng tối đa các mục IPv4 host</t>
+  </si>
+  <si>
+    <t>1,792,000</t>
+  </si>
+  <si>
+    <t>Số lượng tối đa các tuyến đường IPv6 Longest Prefix Match (LPM)</t>
+  </si>
+  <si>
+    <t>Số lượng tối đa các mục IPv6 host</t>
+  </si>
+  <si>
+    <t>896000</t>
+  </si>
+  <si>
+    <t>32,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4096 (27 trong số 4096 VLAN được dành riêng)</t>
+  </si>
+  <si>
+    <t>16000</t>
   </si>
 </sst>
 </file>
@@ -766,7 +775,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F4FD63-E746-4593-A13B-AB0614DC1B29}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
@@ -778,47 +787,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>2</v>
@@ -826,379 +835,387 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="4"/>
+      <c r="A10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1792000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="5">
-        <v>1792000</v>
+        <v>84</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="5">
-        <v>512000</v>
+        <v>85</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B14" s="5">
+        <v>512000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="5">
         <v>128000</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="5">
-        <v>4096</v>
+        <v>40</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="5">
-        <v>512</v>
+        <v>43</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B21" s="5">
-        <v>32</v>
+        <v>512</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B22" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="5">
         <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="5">
-        <v>3967</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B24" s="5">
-        <v>490</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B25" s="5">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="5">
         <v>1023</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="5">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="5">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="5">
+    <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="5">
         <v>64000</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="5">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="4"/>
-    </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>86</v>
-      </c>
+      <c r="A30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="5">
-        <v>4</v>
+        <v>60</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>79</v>
+        <v>61</v>
+      </c>
+      <c r="B39" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>68</v>
+      <c r="A40" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="9"/>
+      <c r="B43" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
-      <c r="B42" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="4"/>
-    </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="A44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="4"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" s="4"/>
+      <c r="A46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A47" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A41:A43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
